--- a/medicine/Mort/Cimetière_militaire_allemand_de_Chambry/Cimetière_militaire_allemand_de_Chambry.xlsx
+++ b/medicine/Mort/Cimetière_militaire_allemand_de_Chambry/Cimetière_militaire_allemand_de_Chambry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Chambry</t>
+          <t>Cimetière_militaire_allemand_de_Chambry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole militaire de Chambry,  est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune de Chambry, dans le département de Seine-et-Marne, à proximité de la nécropole nationale de Chambry.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Chambry</t>
+          <t>Cimetière_militaire_allemand_de_Chambry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire allemand de Chambry a été créée pour les soldats allemands morts pendant la Bataille de la Marne. Entre les deux guerres, de 1924 à 1936, on y a regroupé les dépouilles de soldats provenant d'autres cimetières de Seine-et-Marne. Parmi ces dépouilles, des soldats de la brigade marocaine, jusque là inhumés à Neufmontiers[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire allemand de Chambry a été créée pour les soldats allemands morts pendant la Bataille de la Marne. Entre les deux guerres, de 1924 à 1936, on y a regroupé les dépouilles de soldats provenant d'autres cimetières de Seine-et-Marne. Parmi ces dépouilles, des soldats de la brigade marocaine, jusque là inhumés à Neufmontiers. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_de_Chambry</t>
+          <t>Cimetière_militaire_allemand_de_Chambry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 030 soldats allemands, dont 998 dans un ossuaire reposent dans ce cimetière. 985 d’entre eux n'ont pas pu être identifiés. Chaque croix en pierre matérialise la tombe de deux à quatre soldats[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 030 soldats allemands, dont 998 dans un ossuaire reposent dans ce cimetière. 985 d’entre eux n'ont pas pu être identifiés. Chaque croix en pierre matérialise la tombe de deux à quatre soldats. 
 </t>
         </is>
       </c>
